--- a/biology/Zoologie/Anolis_ortonii/Anolis_ortonii.xlsx
+++ b/biology/Zoologie/Anolis_ortonii/Anolis_ortonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis ortonii est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis ortonii est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Bolivie, au Pérou, en Équateur, en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Bolivie, au Pérou, en Équateur, en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jas Orton[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jas Orton.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
